--- a/doc/バグ&障害管理/インタープリタ/回帰テスト/テストデータ/RT/組み合わせ表.xlsx
+++ b/doc/バグ&障害管理/インタープリタ/回帰テスト/テストデータ/RT/組み合わせ表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新倉\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\BeGIC\doc\バグ&amp;障害管理\インタープリタ\回帰テスト\テストデータ\RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="22">
   <si>
     <t>block</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +129,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +200,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,7 +525,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" activeCellId="1" sqref="F8 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -531,22 +565,38 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -559,7 +609,7 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -567,11 +617,15 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -589,14 +643,18 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
@@ -611,7 +669,9 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -621,19 +681,23 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,9 +708,11 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
@@ -655,23 +721,27 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -704,11 +774,8 @@
         <v>0</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -716,11 +783,8 @@
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -728,11 +792,8 @@
         <v>2</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
